--- a/doc/alice/20180225后台财务更新.xlsx
+++ b/doc/alice/20180225后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -816,9 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -826,6 +823,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2099,16 +2099,16 @@
       <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -2124,16 +2124,16 @@
       <c r="C47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="42"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -2149,16 +2149,16 @@
       <c r="C48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="42"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -2194,16 +2194,16 @@
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -2218,16 +2218,16 @@
       <c r="C52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="43"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="42"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -2242,16 +2242,16 @@
       <c r="C53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="42"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -2296,16 +2296,16 @@
       <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -2320,16 +2320,16 @@
       <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="42"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -2344,16 +2344,16 @@
       <c r="C58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="43"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="42"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -2380,8 +2380,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
     <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
@@ -2399,6 +2397,8 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2462,16 +2462,16 @@
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="T20" s="28"/>
     </row>
     <row r="21" spans="1:20">
@@ -2484,16 +2484,16 @@
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
       <c r="T21" s="28"/>
     </row>
     <row r="22" spans="1:20">
@@ -2506,16 +2506,16 @@
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="T22" s="28"/>
     </row>
     <row r="24" spans="1:20">
@@ -2548,16 +2548,16 @@
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="10" t="s">
@@ -2569,16 +2569,16 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="10" t="s">
@@ -2590,16 +2590,16 @@
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="11"/>
@@ -2641,16 +2641,16 @@
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="10" t="s">
@@ -2662,16 +2662,16 @@
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="10" t="s">
@@ -2683,16 +2683,16 @@
       <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -2802,15 +2802,15 @@
       <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="46"/>
       <c r="T49" s="28"/>
     </row>
@@ -2818,13 +2818,13 @@
       <c r="A50" s="22"/>
       <c r="B50" s="10"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
       <c r="K50" s="47"/>
       <c r="L50" t="s">
         <v>80</v>
@@ -2835,13 +2835,13 @@
       <c r="A51" s="22"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
       <c r="K51" s="47"/>
       <c r="T51" s="28"/>
     </row>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B5" sqref="B5:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3904,17 +3904,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3925,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/alice/20180225后台财务更新.xlsx
+++ b/doc/alice/20180225后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>收：</t>
   </si>
@@ -805,6 +805,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -813,47 +834,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,41 +1409,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="37" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4">
         <v>88</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4">
         <v>100</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
@@ -1741,7 +1741,7 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4">
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="4">
         <v>180</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="4">
         <v>240</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2099,16 +2099,16 @@
       <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -2124,16 +2124,16 @@
       <c r="C47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="42"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="38"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -2149,16 +2149,16 @@
       <c r="C48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="42"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -2194,16 +2194,16 @@
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -2218,16 +2218,16 @@
       <c r="C52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="42"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -2242,16 +2242,16 @@
       <c r="C53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="42"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -2296,16 +2296,16 @@
       <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -2320,16 +2320,16 @@
       <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="42"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -2344,16 +2344,16 @@
       <c r="C58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="42"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -2380,6 +2380,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
     <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
@@ -2395,10 +2399,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="A30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2462,16 +2462,16 @@
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
       <c r="T20" s="28"/>
     </row>
     <row r="21" spans="1:20">
@@ -2484,16 +2484,16 @@
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="T21" s="28"/>
     </row>
     <row r="22" spans="1:20">
@@ -2506,16 +2506,16 @@
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="T22" s="28"/>
     </row>
     <row r="24" spans="1:20">
@@ -2548,20 +2548,20 @@
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>40</v>
@@ -2569,20 +2569,20 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>43</v>
@@ -2590,16 +2590,16 @@
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="11"/>
@@ -2635,64 +2635,52 @@
       <c r="A30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -2802,30 +2790,30 @@
       <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="46"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="52"/>
       <c r="T49" s="28"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="22"/>
       <c r="B50" s="10"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="47"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="51"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -2835,14 +2823,14 @@
       <c r="A51" s="22"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="47"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="51"/>
       <c r="T51" s="28"/>
     </row>
     <row r="52" spans="1:20">
@@ -3006,49 +2994,49 @@
       <c r="B64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39" t="s">
+      <c r="D64" s="41"/>
+      <c r="E64" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="51" t="s">
+      <c r="F64" s="41"/>
+      <c r="G64" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="38"/>
-      <c r="I64" s="51" t="s">
+      <c r="H64" s="45"/>
+      <c r="I64" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="52"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="22"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="52"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="22"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="52"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="47"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="19"/>
@@ -3069,6 +3057,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -3077,28 +3087,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3130,41 +3118,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3212,7 +3200,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
@@ -3262,7 +3250,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>88</v>
       </c>
@@ -3310,7 +3298,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>100</v>
       </c>
@@ -3358,7 +3346,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -3415,7 +3403,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4">
@@ -3462,7 +3450,7 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3504,7 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
@@ -3569,7 +3557,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="4">
         <v>180</v>
       </c>
@@ -3620,7 +3608,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -3671,7 +3659,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -3776,7 +3764,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4">
@@ -3807,7 +3795,7 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4">
         <v>88</v>
       </c>
@@ -3836,7 +3824,7 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4">
         <v>100</v>
       </c>
@@ -3865,7 +3853,7 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
@@ -3925,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/alice/20180225后台财务更新.xlsx
+++ b/doc/alice/20180225后台财务更新.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="收益统计" sheetId="7" r:id="rId2"/>
     <sheet name="课时统计" sheetId="6" r:id="rId3"/>
     <sheet name="资金账单" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>收：</t>
   </si>
@@ -340,18 +341,54 @@
     <t>月初课时+本月交费课时+本月赠送课时-本月已上课时-本月退费课时=本月剩余未上课时</t>
   </si>
   <si>
-    <t>资金账单（也就是余额的收入支出明细表）</t>
+    <t>资金月账单（也就是余额的收入支出明细表）</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>支出/收入类型</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>收入（元）</t>
+  </si>
+  <si>
+    <t>支出（元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→其中一天的详细 </t>
+  </si>
+  <si>
+    <t>课时费</t>
+  </si>
+  <si>
+    <t>课时A</t>
   </si>
   <si>
     <t>1、个人教练身份进入</t>
   </si>
   <si>
+    <t>平台分成</t>
+  </si>
+  <si>
     <t>收入：课时费收入、推荐返利</t>
   </si>
   <si>
+    <t>教练工资</t>
+  </si>
+  <si>
     <t>支出：提现金额</t>
   </si>
   <si>
+    <t>活动收入</t>
+  </si>
+  <si>
+    <t>活动A</t>
+  </si>
+  <si>
     <t>不允许添加收入支出</t>
   </si>
   <si>
@@ -361,9 +398,21 @@
     <t>收入：课时费收入、活动收入、推荐返利</t>
   </si>
   <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
     <t>支出：平台分成、提现金额、赠课</t>
   </si>
   <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
     <t>不允许添加收入，可以添加支出</t>
   </si>
   <si>
@@ -376,6 +425,9 @@
     <t>支出：平台分成、营内教练工资、提现金额</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>4、后台进入</t>
   </si>
   <si>
@@ -401,13 +453,61 @@
   </si>
   <si>
     <t>这个页面可以专门放这些图表，还有浏览量的统计</t>
+  </si>
+  <si>
+    <t>搜索训练营：大热篮球俱乐部</t>
+  </si>
+  <si>
+    <t>课时月份2018年2月</t>
+  </si>
+  <si>
+    <t>上课时间</t>
+  </si>
+  <si>
+    <t>课时信息</t>
+  </si>
+  <si>
+    <t>课时总价</t>
+  </si>
+  <si>
+    <t>平台收费</t>
+  </si>
+  <si>
+    <t>训练营收入</t>
+  </si>
+  <si>
+    <t>课程：大热常规班（单价：100）
+班级：丽山文体公园高年级班
+正式学员人数：4
+学员名单：周宇乐,余鲁文,林城佑,刘昊,            教练：安凯翔</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>收入=单价100*正式学员人数</t>
+  </si>
+  <si>
+    <t>支出：训练营设定的教练工资100+25*4</t>
+  </si>
+  <si>
+    <t>支出：平台收取10%</t>
+  </si>
+  <si>
+    <t>余额：400-200-40=160</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,13 +560,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +713,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -498,7 +928,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,10 +977,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -558,9 +990,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -689,29 +1119,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -720,17 +1446,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,15 +1497,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -804,62 +1554,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -870,7 +1616,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -892,7 +1638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -917,7 +1663,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -939,7 +1685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -964,7 +1710,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -986,7 +1732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1028,14 +1774,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="5692140"/>
+          <a:off x="635" y="5693410"/>
           <a:ext cx="3200400" cy="2362835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1333,16 +2079,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD61"/>
+      <selection activeCell="A27" sqref="$A27:$XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1366,704 +2112,704 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="41" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>83</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
         <v>90</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
         <v>7470</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="11">
         <v>8</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
         <v>664</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
         <f t="shared" ref="O12:Q14" si="0">C12+F12-I12</f>
         <v>82</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="11">
         <f t="shared" si="0"/>
         <v>6806</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="41"/>
-      <c r="B13" s="4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11">
         <v>88</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>13</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <v>1144</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="11">
         <v>30</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <v>2640</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="11">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <v>264</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="11">
         <f t="shared" si="0"/>
         <v>3520</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="41"/>
-      <c r="B14" s="4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11">
         <v>100</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11">
         <v>337</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="11">
         <v>33700</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="11">
         <v>15</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
         <v>1500</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="11">
         <v>86</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="11">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <v>8600</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="11">
         <f t="shared" si="0"/>
         <v>26600</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="41"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="11">
         <f t="shared" ref="C15:K15" si="1">SUM(C12:C14)</f>
         <v>350</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>34844</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>11610</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="11">
         <f t="shared" si="1"/>
         <v>9528</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
         <f>SUM(O12:O14)</f>
         <v>388</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="11">
         <f>SUM(P12:P14)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="11">
         <f>SUM(Q12:Q14)</f>
         <v>36926</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="39" t="s">
+    <row r="16" hidden="1" spans="1:17">
+      <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>100</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="11">
         <v>741</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
         <v>74100</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
         <v>124</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>12400</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11">
         <f>C16+F16-I16</f>
         <v>617</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="11">
         <f>D16+G16-J16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="4" t="s">
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" hidden="1" spans="1:17">
+      <c r="A17" s="22"/>
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="11">
         <f>SUM(C16:C16)</f>
         <v>741</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <f t="shared" ref="D17:K17" si="2">SUM(D16:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
         <v>74100</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="11">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="11">
         <f t="shared" si="2"/>
         <v>12400</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
         <f>SUM(O16:O16)</f>
         <v>617</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="11">
         <f>SUM(P16:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>100</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="11">
         <v>1555</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="11">
         <v>22</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="11">
         <f>C18*B18</f>
         <v>155500</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="11">
         <v>223</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="11">
         <v>18</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="11">
         <f>F18*B18</f>
         <v>22300</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="11">
         <v>242</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="11">
         <v>19</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="11">
         <f>I18*B18</f>
         <v>24200</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11">
         <f t="shared" ref="O18:Q20" si="3">C18+F18-I18</f>
         <v>1536</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="11">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="11">
         <f t="shared" si="3"/>
         <v>153600</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="41"/>
-      <c r="B19" s="4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11">
         <v>180</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
         <f>C19*B19</f>
         <v>360</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="11">
         <v>20</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
         <f>F19*B19</f>
         <v>3600</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="11">
         <v>4</v>
       </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <f>I19*B19</f>
         <v>720</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="11">
         <f t="shared" si="3"/>
         <v>3240</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="41"/>
-      <c r="B20" s="4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11">
         <v>240</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
         <f>C20*B20</f>
         <v>240</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
         <f>F20*B20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
         <f>I20*B20</f>
         <v>240</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="41"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="11">
         <f t="shared" ref="C21:K21" si="4">SUM(C18:C20)</f>
         <v>1558</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="11">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="11">
         <f t="shared" si="4"/>
         <v>156100</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="11">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="11">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="11">
         <f t="shared" si="4"/>
         <v>25900</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="11">
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="11">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="11">
         <f t="shared" si="4"/>
         <v>25160</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
         <f>SUM(O18:O20)</f>
         <v>1554</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="11">
         <f>SUM(P18:P20)</f>
         <v>21</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="11">
         <f>SUM(Q18:Q20)</f>
         <v>156840</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="34" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="34" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="35"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="32" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="61"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="32"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="B26" s="58"/>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +2818,7 @@
       <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E45" t="s">
@@ -2087,88 +2833,88 @@
       <c r="K45" t="s">
         <v>33</v>
       </c>
-      <c r="T45" s="27"/>
+      <c r="T45" s="53"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
-      <c r="T46" s="28"/>
+      <c r="T46" s="54"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="45"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
-      <c r="T47" s="28"/>
+      <c r="T47" s="54"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="45"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
-      <c r="T48" s="28"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="T48" s="54"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E50" t="s">
@@ -2184,93 +2930,93 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="38"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="45"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="45"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:20">
+    <row r="54" spans="3:10">
+      <c r="C54" s="10"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E55" t="s">
@@ -2286,102 +3032,110 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:12">
+      <c r="A57" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="45"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="45"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
-      <c r="C59" s="11"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+    <row r="59" spans="3:11">
+      <c r="C59" s="10"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="T60" s="27"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="T61" s="27"/>
+      <c r="T60" s="53"/>
+    </row>
+    <row r="61" spans="20:20">
+      <c r="T61" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="D52:K52"/>
     <mergeCell ref="D53:K53"/>
     <mergeCell ref="D56:K56"/>
     <mergeCell ref="D57:K57"/>
@@ -2391,26 +3145,19 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="A30:K30"/>
     </sheetView>
   </sheetViews>
@@ -2421,12 +3168,12 @@
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +3182,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
@@ -2450,79 +3197,79 @@
       <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="27"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="T20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="T20" s="54"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="T21" s="28"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="45"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="T22" s="28"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="45"/>
+      <c r="T22" s="54"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
@@ -2538,84 +3285,84 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="10"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E29" t="s">
@@ -2631,429 +3378,430 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="T33" s="27"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="T36" s="27"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="T33" s="53"/>
+    </row>
+    <row r="36" spans="20:20">
+      <c r="T36" s="53"/>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="13" t="s">
+    <row r="43" ht="14.25"/>
+    <row r="44" spans="1:11">
+      <c r="A44" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="17"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="9"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="1:20" ht="22.5">
-      <c r="A46" s="18" t="s">
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="46"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="36"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="27"/>
+      <c r="K45" s="47"/>
+    </row>
+    <row r="46" ht="22.5" spans="1:12">
+      <c r="A46" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="25"/>
+      <c r="K46" s="47"/>
       <c r="L46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="K47" s="25"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="17" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="K47" s="47"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="39"/>
       <c r="G48" t="s">
         <v>74</v>
       </c>
       <c r="I48" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="25"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="52"/>
-      <c r="T49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="48"/>
+      <c r="T49" s="54"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="22"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="51"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="49"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
-      <c r="T50" s="28"/>
+      <c r="T50" s="54"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="22"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="51"/>
-      <c r="T51" s="28"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="49"/>
+      <c r="T51" s="54"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="19"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="26"/>
-      <c r="T52" s="12"/>
+      <c r="A52" s="38"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="50"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20" t="s">
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="39"/>
       <c r="G53" t="s">
         <v>74</v>
       </c>
       <c r="I53" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="T53" s="12"/>
+      <c r="K53" s="47"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
-      <c r="T54" s="12"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="51"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="22"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="50"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="51"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
-      <c r="T55" s="12"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="22"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="50"/>
-      <c r="T56" s="12"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="19"/>
-      <c r="K57" s="25"/>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="19" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="51"/>
+      <c r="T56" s="31"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="38"/>
+      <c r="K57" s="47"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="K58" s="25"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="50"/>
-      <c r="T59" s="28"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="51"/>
+      <c r="T59" s="54"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50"/>
-      <c r="T60" s="28"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="51"/>
+      <c r="T60" s="54"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="22"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="T61" s="28"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="19"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="19" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="51"/>
+      <c r="T61" s="54"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="38"/>
+      <c r="K62" s="47"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="22" t="s">
+      <c r="K63" s="47"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="46" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46" t="s">
+      <c r="H64" s="18"/>
+      <c r="I64" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="44"/>
-      <c r="K64" s="47"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="52"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="22"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="47"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="52"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="22"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="47"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="52"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="19"/>
-      <c r="K67" s="25"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="31"/>
+      <c r="A67" s="38"/>
+      <c r="K67" s="47"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:11">
+      <c r="A68" s="55"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3088,18 +3836,19 @@
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Q8"/>
+      <selection activeCell="H24" sqref="A20:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3107,615 +3856,615 @@
     <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="41" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>83</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>90</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>7470</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="11">
         <v>8</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>664</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
         <f t="shared" ref="O5:O7" si="0">C5+F5-I5</f>
         <v>82</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="11">
         <f t="shared" ref="P5:P7" si="1">D5+G5-J5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="11">
         <f t="shared" ref="Q5:Q7" si="2">E5+H5-K5</f>
         <v>6806</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="41"/>
-      <c r="B6" s="4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11">
         <v>88</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="11">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>1144</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="11">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>2640</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="11">
         <v>3</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>264</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="11">
         <f t="shared" si="2"/>
         <v>3520</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="41"/>
-      <c r="B7" s="4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
         <v>100</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>337</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>33700</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="11">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>1500</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="11">
         <v>86</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="11">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <v>8600</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="11">
         <f t="shared" si="2"/>
         <v>26600</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="41"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:K8" si="3">SUM(C5:C7)</f>
         <v>350</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <f t="shared" si="3"/>
         <v>34844</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="11">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="11">
         <f t="shared" si="3"/>
         <v>11610</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="11">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>9528</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
         <f t="shared" ref="O8:Q8" si="4">SUM(O5:O7)</f>
         <v>388</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="11">
         <f t="shared" si="4"/>
         <v>36926</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="39" t="s">
+    <row r="9" hidden="1" spans="1:17">
+      <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>741</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>74100</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>124</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
         <v>12400</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
         <f t="shared" ref="O9:O13" si="5">C9+F9-I9</f>
         <v>617</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="11">
         <f t="shared" ref="P9:P13" si="6">D9+G9-J9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="4" t="s">
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" hidden="1" spans="1:17">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <f t="shared" ref="C10:K10" si="7">SUM(C9:C9)</f>
         <v>741</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <f t="shared" si="7"/>
         <v>74100</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="11">
         <f t="shared" si="7"/>
         <v>124</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="11">
         <f t="shared" si="7"/>
         <v>12400</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
         <f>SUM(O9:O9)</f>
         <v>617</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="11">
         <f>SUM(P9:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>100</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>1555</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>22</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <f t="shared" ref="E11:E13" si="8">C11*B11</f>
         <v>155500</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="11">
         <v>223</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="11">
         <v>18</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="11">
         <f t="shared" ref="H11:H13" si="9">F11*B11</f>
         <v>22300</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="11">
         <v>242</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="11">
         <v>19</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="11">
         <f t="shared" ref="K11:K13" si="10">I11*B11</f>
         <v>24200</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
         <f t="shared" si="5"/>
         <v>1536</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="11">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="11">
         <f t="shared" ref="Q11:Q13" si="11">E11+H11-K11</f>
         <v>153600</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="41"/>
-      <c r="B12" s="4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11">
         <v>180</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="11">
         <v>20</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" si="9"/>
         <v>3600</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="11">
         <v>4</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="10"/>
         <v>720</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="11">
         <f t="shared" si="11"/>
         <v>3240</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="41"/>
-      <c r="B13" s="4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11">
         <v>240</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="11">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="41"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11">
         <f t="shared" ref="C14:K14" si="12">SUM(C11:C13)</f>
         <v>1558</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="11">
         <f t="shared" si="12"/>
         <v>156100</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="11">
         <f t="shared" si="12"/>
         <v>243</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="11">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="11">
         <f t="shared" si="12"/>
         <v>25900</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="11">
         <f t="shared" si="12"/>
         <v>247</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="11">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <f t="shared" si="12"/>
         <v>25160</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <f t="shared" ref="O14:Q14" si="13">SUM(O11:O13)</f>
         <v>1554</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="11">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="11">
         <f t="shared" si="13"/>
         <v>156840</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3723,323 +4472,692 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="19" ht="17.1" customHeight="1" spans="1:1">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="20" s="19" customFormat="1" ht="27.95" customHeight="1" spans="1:12">
+      <c r="A20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <v>83</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
         <v>90</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
         <v>8</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
         <f>C21+D21+E21-F21-G21</f>
         <v>82</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="41"/>
-      <c r="B22" s="4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11">
         <v>88</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="11">
         <v>13</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="11">
         <v>30</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
         <f>C22+D22+E22-F22-G22</f>
         <v>40</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="41"/>
-      <c r="B23" s="4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11">
         <v>100</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="11">
         <v>337</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="11">
         <v>15</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
         <v>86</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
         <f>C23+D23+E23-F23-G23</f>
         <v>266</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="41"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="11">
         <f>SUM(C21:C23)</f>
         <v>350</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="11">
         <f>SUM(D21:D23)</f>
         <v>135</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="11">
         <f>SUM(E21:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="11">
         <f>SUM(F21:F23)</f>
         <v>97</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
         <f>C24+D24+E24-F24-G24</f>
         <v>388</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="8" spans="15:21">
+      <c r="O8" s="10"/>
+      <c r="P8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="15:21">
+      <c r="O9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="12">
+        <v>43133</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="11">
+        <v>500</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="12">
+        <v>43133</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11">
+        <v>50</v>
+      </c>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="12">
+        <v>43133</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11">
+        <v>200</v>
+      </c>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="12">
+        <v>43133</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11">
+        <f>SUM(S9:S12)</f>
+        <v>1500</v>
+      </c>
+      <c r="T13" s="11">
+        <f>SUM(T9:T12)</f>
+        <v>250</v>
+      </c>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="15:21">
+      <c r="O14" s="10"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="Q16" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="R16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="S17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="15">
+        <v>43133</v>
+      </c>
+      <c r="Q18" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="R18" s="11">
+        <v>500</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11">
+        <v>50</v>
+      </c>
+      <c r="U18" s="11">
+        <v>200</v>
+      </c>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="19" spans="15:22">
+      <c r="O19" s="10"/>
+      <c r="P19" s="15">
+        <v>43133</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>131</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="15">
+        <v>43133</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" ref="R21:U21" si="0">SUM(R18:R19)</f>
+        <v>500</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="V21" s="11">
+        <f>SUM(V18:V20)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>117</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" s="11">
+        <f>SUM(R18:S19)</f>
+        <v>1500</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="16">
+        <f>SUM(T18:V21)</f>
+        <v>1500</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="29.1" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" ht="29.1" customHeight="1" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <mergeCells count="6">
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="25" customHeight="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" ht="70" customHeight="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>43136.3541666667</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4">
+        <v>400</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3-D3-E3</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="3:6">
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="3:6">
+      <c r="C5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>